--- a/7rmartproject/src/test/resources/TestData.xlsx
+++ b/7rmartproject/src/test/resources/TestData.xlsx
@@ -5,16 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swathish\git\TestNG\7rmartproject\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swathish\git\7rmartRepo\7rmartproject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A881AB2-EC28-42A6-A969-1670A353E79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F07FD4-6EFA-459D-9541-B363BC03B5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loginpage" sheetId="1" r:id="rId1"/>
-    <sheet name="AdminUserPage" sheetId="2" r:id="rId2"/>
+    <sheet name="AdminUserpage" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageNewsPage" sheetId="3" r:id="rId3"/>
+    <sheet name="SubCategoryPage" sheetId="4" r:id="rId4"/>
+    <sheet name="ManageProductPage" sheetId="5" r:id="rId5"/>
+    <sheet name="ManageFooterPage" sheetId="6" r:id="rId6"/>
+    <sheet name="ManageContactPage" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>admin</t>
   </si>
@@ -43,13 +48,10 @@
     <t>passwordvalue</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>userType</t>
+    <t>usernameupdate</t>
+  </si>
+  <si>
+    <t>passwordupdate</t>
   </si>
   <si>
     <t>user123</t>
@@ -58,14 +60,107 @@
     <t>admin12345</t>
   </si>
   <si>
-    <t>Delivery Boy</t>
+    <t>HIII!!!!</t>
+  </si>
+  <si>
+    <t>WELCOME</t>
+  </si>
+  <si>
+    <t>Subcategory</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Vegetables</t>
+  </si>
+  <si>
+    <t>Grocery</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>Tomatoes</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>mrp</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>salmon</t>
+  </si>
+  <si>
+    <t>5kg</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>nonveg</t>
+  </si>
+  <si>
+    <t>maxquty</t>
+  </si>
+  <si>
+    <t>purchspric</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>knpy</t>
+  </si>
+  <si>
+    <t>hiiii@gmail.com</t>
+  </si>
+  <si>
+    <t>phonenumber</t>
+  </si>
+  <si>
+    <t>Delivertime</t>
+  </si>
+  <si>
+    <t>deliverycharge</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>hi@gmailcom</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>sea food items</t>
+  </si>
+  <si>
+    <t>reshmi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,9 +170,43 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF3F7F5F"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF6A3E3E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,14 +226,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -385,13 +527,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
     <col min="2" max="2" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -405,10 +547,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -441,44 +583,291 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943E720F-FEBD-4384-B4EF-4FCAAABEC5C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38253F2-C211-49E6-94FA-A6798F606434}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C824CB-0D2C-45C8-B107-FDCBF2DD492B}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47212DA-F181-429A-8D74-0AAC21457C31}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89DA7A6F-C348-4B8B-8D74-D489F08A6FED}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="28.44140625" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5">
+        <v>5000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9937686A-F3CB-48E1-8342-5A4C08F858BB}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>1234567</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{709FBAEB-29B8-4372-BFD8-8644C0EF594D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B83AE1-54D7-4C86-A9BC-82450B03321A}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>12345678</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="5">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5">
+        <v>50</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{8C4BCD41-FF7F-4942-9CB9-D3E1E384E9F9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/7rmartproject/src/test/resources/TestData.xlsx
+++ b/7rmartproject/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swathish\git\7rmartRepo\7rmartproject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F07FD4-6EFA-459D-9541-B363BC03B5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4739BC4-DB0A-4228-9EBF-6ED282CEEDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loginpage" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>admin</t>
   </si>
   <si>
-    <t>admi11</t>
-  </si>
-  <si>
     <t>dmin</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
   </si>
   <si>
     <t>sea food items</t>
-  </si>
-  <si>
-    <t>reshmi</t>
   </si>
 </sst>
 </file>
@@ -528,7 +522,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,18 +533,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -558,12 +552,12 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -571,10 +565,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -599,19 +593,19 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -634,12 +628,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -663,26 +657,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -713,39 +707,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" s="5">
         <v>1000</v>
@@ -754,13 +748,13 @@
         <v>4000</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5">
         <v>5000</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -784,21 +778,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="C2">
         <v>1234567</v>
@@ -831,19 +825,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -851,10 +845,10 @@
         <v>12345678</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="5">
         <v>15</v>

--- a/7rmartproject/src/test/resources/TestData.xlsx
+++ b/7rmartproject/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swathish\git\7rmartRepo\7rmartproject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4739BC4-DB0A-4228-9EBF-6ED282CEEDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C927DE-064F-480C-AD0D-AE94645B6327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">

--- a/7rmartproject/src/test/resources/TestData.xlsx
+++ b/7rmartproject/src/test/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swathish\git\7rmartRepo\7rmartproject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C927DE-064F-480C-AD0D-AE94645B6327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E987629D-1057-48FB-B2C8-67D715D60A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loginpage" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>admin</t>
   </si>
   <si>
-    <t>dmin</t>
-  </si>
-  <si>
     <t>usernamevalue</t>
   </si>
   <si>
@@ -148,6 +145,12 @@
   </si>
   <si>
     <t>sea food items</t>
+  </si>
+  <si>
+    <t>admin12345789</t>
+  </si>
+  <si>
+    <t>dmin123456789</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,10 +536,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -552,12 +555,12 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -565,10 +568,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +584,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,19 +596,19 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -628,12 +631,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -657,26 +660,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -707,39 +710,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>26</v>
-      </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
       </c>
       <c r="D2" s="5">
         <v>1000</v>
@@ -748,13 +751,13 @@
         <v>4000</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="5">
         <v>5000</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -778,21 +781,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="C2">
         <v>1234567</v>
@@ -825,19 +828,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -845,10 +848,10 @@
         <v>12345678</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="5">
         <v>15</v>
